--- a/用例数据/沪权/备兑转换/测试结果.xlsx
+++ b/用例数据/沪权/备兑转换/测试结果.xlsx
@@ -4,16 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="futureposition" sheetId="1" r:id="rId1"/>
     <sheet name="futurepositiondetail" sheetId="2" r:id="rId2"/>
-    <sheet name="stkoptionsettlement" sheetId="3" r:id="rId3"/>
+    <sheet name="futurepositiondetail2022" sheetId="4" r:id="rId3"/>
+    <sheet name="futuretradinglog" sheetId="5" r:id="rId4"/>
+    <sheet name="stkoptionsettlement" sheetId="3" r:id="rId5"/>
+    <sheet name="futureposition2022" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">futureposition!$A$1:$BC$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">stkoptionsettlement!$A$1:$BH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">futureposition!$A$1:$BB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">stkoptionsettlement!$A$1:$BH$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="303">
   <si>
     <t>EXCHID</t>
   </si>
@@ -288,21 +291,9 @@
     <t>0.000</t>
   </si>
   <si>
-    <t>39780.00</t>
-  </si>
-  <si>
     <t>48896.00</t>
   </si>
   <si>
-    <t>2163240.00</t>
-  </si>
-  <si>
-    <t>2884320.00</t>
-  </si>
-  <si>
-    <t>22400.00</t>
-  </si>
-  <si>
     <t>PARTID</t>
   </si>
   <si>
@@ -456,18 +447,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ZBD30050433</t>
-  </si>
-  <si>
     <t>20201028000000</t>
   </si>
   <si>
     <t>20220511235959</t>
   </si>
   <si>
-    <t>ZXJ30050434</t>
-  </si>
-  <si>
     <t>RECKONINGTIME</t>
   </si>
   <si>
@@ -636,8 +621,322 @@
     <t>30050433</t>
   </si>
   <si>
-    <t>A117212005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>OCCURTIME</t>
+  </si>
+  <si>
+    <t>20221216000000</t>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>30050239</t>
+  </si>
+  <si>
+    <t>30050236</t>
+  </si>
+  <si>
+    <t>ZBD30050237</t>
+  </si>
+  <si>
+    <t>20221216235959</t>
+  </si>
+  <si>
+    <t>ZXJ30050238</t>
+  </si>
+  <si>
+    <t>BRIEFID</t>
+  </si>
+  <si>
+    <t>CUSTNAME</t>
+  </si>
+  <si>
+    <t>CUSTTYPE</t>
+  </si>
+  <si>
+    <t>ACCTNAME</t>
+  </si>
+  <si>
+    <t>RECKONINGAMT</t>
+  </si>
+  <si>
+    <t>POSTAMT</t>
+  </si>
+  <si>
+    <t>POSTQTY</t>
+  </si>
+  <si>
+    <t>EXCHCOMMISION</t>
+  </si>
+  <si>
+    <t>CUSTCOMMISION</t>
+  </si>
+  <si>
+    <t>EXCHMARGINAMT</t>
+  </si>
+  <si>
+    <t>CUSTMARGINAMT</t>
+  </si>
+  <si>
+    <t>COSTCENTERID</t>
+  </si>
+  <si>
+    <t>SALESID</t>
+  </si>
+  <si>
+    <t>ACCOUNTINGFLAG</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>SELFFLAG</t>
+  </si>
+  <si>
+    <t>CUSTODYMODE</t>
+  </si>
+  <si>
+    <t>TRADEOPTID</t>
+  </si>
+  <si>
+    <t>SETTLEOPTID</t>
+  </si>
+  <si>
+    <t>OPTMODE</t>
+  </si>
+  <si>
+    <t>OPENPRICE</t>
+  </si>
+  <si>
+    <t>OPENDATE</t>
+  </si>
+  <si>
+    <t>OPENKNOCKCODE</t>
+  </si>
+  <si>
+    <t>FLOATPNL</t>
+  </si>
+  <si>
+    <t>EXCHCOMMISIONRATE</t>
+  </si>
+  <si>
+    <t>EXCHCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>EXCHMARGINRATE</t>
+  </si>
+  <si>
+    <t>BROKERID</t>
+  </si>
+  <si>
+    <t>TODAYCHARGEFLAG</t>
+  </si>
+  <si>
+    <t>BANKAMT</t>
+  </si>
+  <si>
+    <t>EXCHCLOSETDRATE</t>
+  </si>
+  <si>
+    <t>EXCHCLOSETDFEE</t>
+  </si>
+  <si>
+    <t>CUSTCOMMISIONRATE</t>
+  </si>
+  <si>
+    <t>CUSTCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>CUSTCLOSETDRATE</t>
+  </si>
+  <si>
+    <t>CUSTCLOSETDFEE</t>
+  </si>
+  <si>
+    <t>INTERCONTNUM</t>
+  </si>
+  <si>
+    <t>OPENLOCALORDERID</t>
+  </si>
+  <si>
+    <t>CUSTMARGINRATE</t>
+  </si>
+  <si>
+    <t>EXCHCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>CUSTCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>DUEFEE</t>
+  </si>
+  <si>
+    <t>DERATEFEE</t>
+  </si>
+  <si>
+    <t>PROJECTID</t>
+  </si>
+  <si>
+    <t>BASKETID</t>
+  </si>
+  <si>
+    <t>OPTLEVEL</t>
+  </si>
+  <si>
+    <t>OPTBRANCHID</t>
+  </si>
+  <si>
+    <t>BANKSERIALNUM</t>
+  </si>
+  <si>
+    <t>NOTENUM</t>
+  </si>
+  <si>
+    <t>DEPOSITINTEREST</t>
+  </si>
+  <si>
+    <t>DEPOSITSUM</t>
+  </si>
+  <si>
+    <t>UNDOFLAG</t>
+  </si>
+  <si>
+    <t>CHECKORCASH</t>
+  </si>
+  <si>
+    <t>AUDITOPTID1</t>
+  </si>
+  <si>
+    <t>AUDITOPTID2</t>
+  </si>
+  <si>
+    <t>BANKACCTID</t>
+  </si>
+  <si>
+    <t>AUDITOPTID</t>
+  </si>
+  <si>
+    <t>TRANSACTIONREF</t>
+  </si>
+  <si>
+    <t>CUSTBANKID</t>
+  </si>
+  <si>
+    <t>CUSTBANKACCTID</t>
+  </si>
+  <si>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>个股期权转备兑非备兑增加</t>
+  </si>
+  <si>
+    <t>30050583</t>
+  </si>
+  <si>
+    <t>208_003_004</t>
+  </si>
+  <si>
+    <t>20221217162300</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>0.000000000</t>
+  </si>
+  <si>
+    <t>997296518.700</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>0.00000</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>个股期权转备兑非备兑减少</t>
+  </si>
+  <si>
+    <t>30050578</t>
+  </si>
+  <si>
+    <t>208_004_004</t>
+  </si>
+  <si>
+    <t>个股期权转备兑备兑增加</t>
+  </si>
+  <si>
+    <t>30050579</t>
+  </si>
+  <si>
+    <t>208_003_003</t>
+  </si>
+  <si>
+    <t>个股期权转备兑备兑减少</t>
+  </si>
+  <si>
+    <t>30050581</t>
+  </si>
+  <si>
+    <t>208_004_003</t>
+  </si>
+  <si>
+    <t>30050605</t>
+  </si>
+  <si>
+    <t>208_001_038</t>
+  </si>
+  <si>
+    <t>997582371.800</t>
+  </si>
+  <si>
+    <t>13465.200</t>
+  </si>
+  <si>
+    <t>30050606</t>
+  </si>
+  <si>
+    <t>37872.000</t>
+  </si>
+  <si>
+    <t>30050603</t>
+  </si>
+  <si>
+    <t>12762.400</t>
+  </si>
+  <si>
+    <t>30050604</t>
+  </si>
+  <si>
+    <t>48896.000</t>
+  </si>
+  <si>
+    <t>焦振鹏沪权</t>
+  </si>
+  <si>
+    <t>13465.20</t>
+  </si>
+  <si>
+    <t>37872.00</t>
   </si>
 </sst>
 </file>
@@ -963,68 +1262,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:BC15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,10 +1503,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>59</v>
@@ -1217,7 +1515,7 @@
         <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>60</v>
@@ -1244,13 +1542,13 @@
         <v>67</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>69</v>
@@ -1268,13 +1566,13 @@
         <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>70</v>
@@ -1295,13 +1593,16 @@
         <v>70</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>69</v>
@@ -1313,10 +1614,10 @@
         <v>70</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>69</v>
@@ -1366,19 +1667,19 @@
         <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>60</v>
@@ -1393,10 +1694,10 @@
         <v>62</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>66</v>
@@ -1429,7 +1730,7 @@
         <v>70</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>71</v>
@@ -1465,7 +1766,7 @@
         <v>69</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>69</v>
@@ -1477,7 +1778,7 @@
         <v>70</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>72</v>
@@ -1530,10 +1831,10 @@
         <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>59</v>
@@ -1557,10 +1858,10 @@
         <v>62</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>66</v>
@@ -1569,13 +1870,13 @@
         <v>67</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>69</v>
@@ -1593,13 +1894,13 @@
         <v>70</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>70</v>
@@ -1620,13 +1921,13 @@
         <v>70</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>69</v>
@@ -1641,7 +1942,7 @@
         <v>69</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>69</v>
@@ -1691,10 +1992,10 @@
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>59</v>
@@ -1718,10 +2019,10 @@
         <v>62</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>66</v>
@@ -1730,13 +2031,13 @@
         <v>67</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>69</v>
@@ -1754,13 +2055,13 @@
         <v>70</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>70</v>
@@ -1781,16 +2082,13 @@
         <v>70</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>69</v>
@@ -1805,7 +2103,7 @@
         <v>69</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>69</v>
@@ -1855,10 +2153,10 @@
         <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
@@ -2016,10 +2314,10 @@
         <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>59</v>
@@ -2079,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>71</v>
@@ -2112,7 +2410,7 @@
         <v>69</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>69</v>
@@ -2166,8 +2464,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:BC1"/>
+  <autoFilter ref="A1:BB1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2179,47 +2483,47 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2233,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2248,85 +2552,85 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>28</v>
@@ -2337,16 +2641,16 @@
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -2361,31 +2665,31 @@
         <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>56</v>
@@ -2394,10 +2698,10 @@
         <v>69</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>68</v>
@@ -2409,7 +2713,7 @@
         <v>69</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>71</v>
@@ -2421,13 +2725,13 @@
         <v>69</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>70</v>
@@ -2444,16 +2748,16 @@
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>55</v>
@@ -2468,31 +2772,31 @@
         <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>56</v>
@@ -2501,10 +2805,10 @@
         <v>69</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>83</v>
@@ -2516,7 +2820,7 @@
         <v>69</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>71</v>
@@ -2528,13 +2832,13 @@
         <v>69</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>70</v>
@@ -2551,16 +2855,16 @@
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>55</v>
@@ -2575,31 +2879,31 @@
         <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>56</v>
@@ -2608,10 +2912,10 @@
         <v>69</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>83</v>
@@ -2623,7 +2927,7 @@
         <v>69</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>71</v>
@@ -2635,13 +2939,13 @@
         <v>69</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>70</v>
@@ -2658,16 +2962,16 @@
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>55</v>
@@ -2682,31 +2986,31 @@
         <v>81</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>56</v>
@@ -2715,10 +3019,10 @@
         <v>69</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>68</v>
@@ -2730,7 +3034,7 @@
         <v>69</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>71</v>
@@ -2742,13 +3046,13 @@
         <v>69</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>70</v>
@@ -2765,16 +3069,16 @@
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>55</v>
@@ -2789,7 +3093,7 @@
         <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>85</v>
@@ -2801,31 +3105,31 @@
         <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>85</v>
@@ -2837,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>71</v>
@@ -2849,13 +3153,13 @@
         <v>69</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>70</v>
@@ -2872,16 +3176,16 @@
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>55</v>
@@ -2896,7 +3200,7 @@
         <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>85</v>
@@ -2908,31 +3212,31 @@
         <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>85</v>
@@ -2944,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>71</v>
@@ -2956,13 +3260,13 @@
         <v>69</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>70</v>
@@ -2985,10 +3289,3333 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CY28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CY5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CV9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CW9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CX9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CY9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3054,10 +6681,10 @@
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3075,13 +6702,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
@@ -3090,156 +6717,156 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
@@ -3272,28 +6899,28 @@
         <v>56</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>69</v>
@@ -3305,7 +6932,7 @@
         <v>86</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>71</v>
@@ -3335,13 +6962,13 @@
         <v>86</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>80</v>
@@ -3352,10 +6979,10 @@
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>58</v>
@@ -3394,22 +7021,22 @@
         <v>72</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>69</v>
@@ -3421,7 +7048,7 @@
         <v>86</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>71</v>
@@ -3451,13 +7078,13 @@
         <v>86</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>69</v>
@@ -3468,10 +7095,10 @@
     </row>
     <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>58</v>
@@ -3504,28 +7131,28 @@
         <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>69</v>
@@ -3537,7 +7164,7 @@
         <v>86</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>71</v>
@@ -3567,13 +7194,13 @@
         <v>86</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BD4" s="1" t="s">
         <v>69</v>
@@ -3584,10 +7211,10 @@
     </row>
     <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -3626,22 +7253,22 @@
         <v>72</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>69</v>
@@ -3653,7 +7280,7 @@
         <v>86</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>71</v>
@@ -3683,13 +7310,13 @@
         <v>86</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BD5" s="1" t="s">
         <v>80</v>
@@ -3703,4 +7330,1206 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>